--- a/dados/xlsx/Cardinalidade.xlsx
+++ b/dados/xlsx/Cardinalidade.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheuscantarutti/Desktop/Pessoal/Udemy/cursoPyspark/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheuscantarutti/Desktop/Pessoal/Udemy/cursoPyspark/dados/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1143596-C1CF-5444-B996-670321CD68C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348D7876-F727-EC4F-B83C-0FC282596446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="27940" windowHeight="17500" xr2:uid="{E9EB2AEF-B018-B441-8403-8E2C2D76AB00}"/>
+    <workbookView xWindow="28800" yWindow="-1540" windowWidth="38400" windowHeight="21100" xr2:uid="{E9EB2AEF-B018-B441-8403-8E2C2D76AB00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>cd_cliente</t>
   </si>
@@ -189,6 +189,27 @@
   </si>
   <si>
     <t>QUANTIDADE DE PARCELAS</t>
+  </si>
+  <si>
+    <t>fk</t>
+  </si>
+  <si>
+    <t>em clientes - PK</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Inner</t>
   </si>
 </sst>
 </file>
@@ -199,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +242,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -236,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,11 +281,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -287,6 +386,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,7 +905,501 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1160753</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>136559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858C4C69-AE89-4100-5732-AF32A4276AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9190430" y="6472903"/>
+          <a:ext cx="2314678" cy="2266882"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>650841</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>179711</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63637</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>193367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9580DC69-D85D-424A-BFE7-450C0167C517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10824497" y="6529711"/>
+          <a:ext cx="2314678" cy="2266882"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1426443</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>760624</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>153772</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAE0EF6-013B-A103-D6F4-E97C3D8157AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9456120" y="6697440"/>
+            <a:ext cx="1478160" cy="1649880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EAE0EF6-013B-A103-D6F4-E97C3D8157AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9450000" y="6691320"/>
+              <a:ext cx="1490400" cy="1662120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>629782</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>70963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104607</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127488</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CDC4CC-C1C5-888E-3D19-0B646CF908A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11732040" y="6830640"/>
+            <a:ext cx="328320" cy="875880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Ink 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CDC4CC-C1C5-888E-3D19-0B646CF908A5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11723400" y="6776640"/>
+              <a:ext cx="345960" cy="983520"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>512062</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>201641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>870327</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>46853</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BC9D5C-834E-AA1E-0175-6868290D7870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11614320" y="6756480"/>
+            <a:ext cx="1211760" cy="1688760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BC9D5C-834E-AA1E-0175-6868290D7870}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11596680" y="6738480"/>
+              <a:ext cx="1247400" cy="1724400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>808504</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>146564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>267982</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138D6150-0D96-05DC-E3B7-3BA6D5FF834D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10982160" y="7111080"/>
+            <a:ext cx="388080" cy="958680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Ink 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138D6150-0D96-05DC-E3B7-3BA6D5FF834D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10928160" y="7003080"/>
+              <a:ext cx="495720" cy="1174320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-08T23:53:19.038"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1226 843 8191,'-30'49'0,"1"0"0,-30 25 1569,11-8 0,-6 0-1569,1-19 0,-2-3 0,-6 11 0,-3 0 0,-3-7 0,-2-1 0,-6 6 0,0-1 0,12-14 0,0-1 0,-1 3 0,3-3 3000,-24 14-3000,23-14 0,27-13 1938,22-18-1938,29-37 0,34-33 0,-4 11 0,7-5 1118,14-10 1,7-3-1119,-11 16 0,5-2 0,2 1 0,0-2 0,1 1 0,2-2-516,-12 11 1,2 0 0,1 0 0,-1 0 515,0 1 0,0 0 0,0 1 0,1 0 0,0 0 0,1 1 0,0 0 0,0 1 0,-1 1 0,0 1 0,-1 1 0,0 0-643,17-8 0,-1 0 1,-2 3 642,-5 3 0,-2 1 0,-4 4 0,7-3 0,-8 6 0,-16 6 0,-10 7 0,-12 10 0,-37 27 0,-31 45 0,5-17 0,-5 5 479,-14 15 1,-4 5-480,12-16 0,-2 1 0,-1-1 341,-3 1 0,-1-1 0,-1 1-341,-5 7 0,-1 1 0,-1-1 0,1-3 0,0 0 0,-1 0 0,-5 7 0,-1 2 0,1-1 0,4-5 0,1 0 0,2-1 0,4-2 0,1 0 0,2-1 308,1-4 0,1-1 0,5-4-308,0 4 0,5-5 0,-25 21 0,42-36 2087,22-35-2087,28-30 0,32-37 0,-6 18 0,7-5 244,-13 13 1,4-2-1,2-1-244,12-3 0,3-1 0,3-1-748,7-7 1,4-1 0,1 3 747,0 4 0,1 2 0,2 0 0,-18 10 0,2 0 0,-1 1 0,0 2 0,17-6 0,-2 3 0,0 3 0,-10 6 0,0 2 0,-3 1 0,-4 3 0,-1 1 0,-6 5 0,-3 7 0,-6 5 0,12-2 0,-63 54 0,-27 7 0,-12 7-1490,-6 18 1,-8 5 1489,-3-8 0,-7 4 0,-3-1-631,14-16 0,-1 0 1,-3 1-1,-4 3 631,7-7 0,-5 1 0,-2 3 0,-2-1 0,1 1 0,2-2-241,-9 8 0,2-2 0,-1 0 0,0 1 0,-2 2 241,3-3 0,-1 1 0,-2 2 0,1 0 0,1-3 0,3-1-375,-1-1 1,2-2-1,1-2 1,1 0 0,0-1 374,-11 10 0,1 0 0,2-2 0,2-3 0,-7 8 0,3-4 0,3-1 0,10-7 0,2-2 0,6-4 677,2 2 1,7-6-678,-4 13 3309,56-58-3309,56-61 0,-15 14 0,8-7 0,3-1 116,5-4 1,4-1 0,4-3-117,-15 13 0,3-2 0,3 0 0,1-1 0,1 0 0,6-1 0,1 0 0,1-1 0,1 1 0,2-2 0,-8 5 0,0 0 0,1 0 0,2-2 0,0 1 0,1-1 0,-3 3 0,1-1 0,2-1 0,0 0 0,0 0 0,-3 2 0,-1 2 0,13-10 0,-2 3 0,-2 0 0,0 1 0,-1 0 0,-2 1 0,0-1 0,-1 1 0,-3 2 0,-4 5 0,13-6 0,-5 5 0,-6 3 1818,6-5 1,-9 6-1819,17-4 0,-85 75 0,-44 52 0,-5-5 0,-8 8-946,13-23 0,-3 2 1,-2 1 945,4-7 0,-1 2 0,-2 0 0,1 0 0,-15 16 0,0 0 0,-1 1 0,12-13 0,-2 1 0,1 0 0,2-1 0,-10 14 0,1 0 0,1 0 0,0 1 0,-1 0 0,4-3 0,10-15 0,2-2 0,2-1 0,-10 25 0,7-5 0,13-26 0,6-5 0,-3 21 4952,28-52-4952,37-56 0,26-36 0,-7 12 0,6-6-1330,-12 15 1,2-2-1,1-1 1330,3-4 0,2 0 0,0-1 0,4-3 0,2-1 0,0 0 0,1-1 0,1 1 0,-2 2 0,-5 8 0,-2 3 0,0 2 724,-3 2 1,0 2 0,-4 5-725,3 5 0,-6 6 0,7-8 0,-38 77 0,-37 44 0,1-9 0,-5 9-886,-2-10 0,-4 5 0,-1-1 886,-2 0 0,-2 0 0,-2 1 0,-6 10 0,-3 1 0,0-1 0,3-8 0,0 0 0,0-1 0,-1 1 0,1 0 0,1-1 0,3-3 0,1-2 0,1 2 0,4-1 0,1 0 0,2-3 0,-6 11 0,4-4 1915,9-6 0,6-9-1915,1-5 1219,14-24-1219,14-41 0,56-63 0,-20 27 0,6-5-1230,1-2 0,5-5 0,2 1 1230,5 1 0,1 2 0,4-3-222,-10 4 1,3-1 0,0-1-1,0 1 222,-3 5 0,1 2 0,-1 0 0,0-2 0,2-3 0,0-1 0,-2 0 0,0 2-570,8-4 0,-2 2 0,-2 2 570,-10 4 0,-1 1 0,-4 3-186,11-9 1,-6 6 185,8-8 2847,-44 60-2847,-70 65 0,15-21 0,-6 5 1050,-18 16 1,-7 3-1051,22-25 0,-2 0 0,-1 2-12,-6 9 1,0 3 0,0-1 11,4-3 0,1 0 0,1 1 0,-2 7 0,0 2 0,2-2 0,8-11 0,1-2 0,3 1 0,4 4 0,2 0 0,2-4-416,-8 7 0,6-4 416,11-3 0,6-4 0,-1 6 0,14-25 1880,4-18-1880,14-36 0,15-25 0,0 6 0,1-3 1087,-4 1 1,0-1-1088,5-6 0,-1 2 1784,12-14-1784,-11 0 0,-9 25 0,-10 10 0,-12 24 0,-11 24 549,-2 8-549,-12 12 0,10 1 0,-5-11 0,8 8 0,3-28 0,-2 8 0,5-12 0,-1 0 0,1-6 0,2-2 0,-2-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-08T23:53:41.047"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.3" units="cm"/>
+      <inkml:brushProperty name="color" value="#849398"/>
+      <inkml:brushProperty name="inkEffects" value="pencil"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 16383,'2'12'0,"12"18"0,13 23 0,12 19 0,7 15 0,6 9 0,3 7 0,0 2 0,-2-4 0,-6-5 0,-9-12 0,-10-16 0,-1 32 0,-14-16 0,11 17 0,1-32 0,12 14 0,8 9 0,4 7 0,3 4 0,-2-1 0,-3-3 0,-8-6 0,-10-10 0,-12-13 0,-17-17 0,-49 19 0,-19-22 0,24-8 0,2-4 0,-27 29 0,42-43 0,17-23 0,8-28 0,0 17 0,2-17 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-08T23:53:46.015"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.1" units="cm"/>
+      <inkml:brushProperty name="height" value="0.1" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">322 0 24575,'13'0'0,"-3"2"0,-8 1 0,0 6 0,-1 2 0,-7 19 0,-9 8 0,-9 15 0,-16 9 0,-5 12 0,-8-8 0,3 10 0,14-21 0,7-2 0,19-24 0,2-4 0,10-18 0,0-1 0,14-4 0,16 0 0,34-7 0,30-7 0,-35 6 0,3-1-896,9-2 0,1 0 896,3 5 0,0 2 0,-11-2 0,-4 2 0,-5 2 0,-6 0 0,2 2 0,-25 1 0,-29 26 0,-26 14 0,-4 1 0,-8 3-822,-11-3 0,-5-2 822,-11 11 0,-6-2 0,-8-8 0,-1-4 0,12-5 0,0 0 0,-5-1 0,3-1 0,19-8 0,4-1 1635,-21 14-1635,33-15 0,48-24 0,28-18 0,28-8 0,-22 12 0,4-1-955,19-6 1,5 0 954,7 2 0,4 2 0,-15 1 0,4 0 0,-1 2 0,-6 4 0,-1 1 0,1 2 0,6-1 0,0 2 0,-3 1 0,16 3 0,-7 1 0,-19 1 0,-7 1 1617,9 3-1617,-54 15 0,-36 24 0,-22 18 0,6-18 0,-7 1-773,-14 1 0,-4-1 773,0-1 0,-2-1 0,-6 0 0,0 0 0,8-6 0,3-1 0,13-3 0,5-2 1917,-14 5-1917,33-12 0,27-16 0,23 1 0,55-3 0,-16 0 0,9-2 0,-6-2 0,6-2 0,3 1-635,9 1 1,4 1 0,3 0 634,-11-1 0,3-1 0,0 0 0,-1 1 0,15 1 0,-2 0 0,4 0 0,-2 0 0,6 0 0,-1 0 0,-6 0-1111,-1-1 0,-5 0 1,1 3 1110,10 5 0,2 2 0,-11 2 0,-6 0 0,-14 7-960,7 42 960,-94 4 0,-11-19 0,-12 1 0,-21 4 0,-13 1 0,5-7 0,-8 3 0,-2-3-1388,-3-3 1,-3-1 0,-3 0 1387,12-6 0,-2-1 0,-2 1 0,2-2-394,2-1 1,0-1-1,1-1 1,-1 1 393,0 1 0,-1 0 0,1 1 0,2 0 167,-16 11 0,3 1 1,4 1-168,8-2 0,2 0 0,8 2 0,-7 16 0,13 3 0,24-8 0,10 1 293,5 34-293,34-36 0,13-2 0,9-14 0,10-4 1248,34 8 1,13-8-1249,-27-20 0,4-6 0,2-1 0,15 0 0,5-2 0,-1-3 0,-5-1 0,1-3 0,0 0 0,8 1 0,1 0 0,-3 0 0,-9 0 0,-3 0 0,-3 0 0,24 0 0,-11 0 472,-34 1 0,-11 0-472,-8 2-43,-89 41 43,6-18 0,-8 0 0,-21 17 0,-8 1 0,15-14 0,-3-1 1,-1 0-1,3-1 0,-1 0 0,0 1 0,1 0 0,0 1 0,0 1 0,0 0 0,0 1 0,4 0 0,-12 12 0,6 0 0,0-1 0,8 0 5459,-6 22-5459,27-10 0,33 3 0,43 12 0,33 0-564,-5-35 0,10-5 564,13-3 0,8-6-706,-8-9 1,6-4 0,1-1 705,-2 3 0,0-2 0,2-1-377,-16-4 1,1-1-1,1-1 1,-3 1 376,16 0 0,-2 0 0,0-1 0,-1 0 0,1-1 0,-6-1-346,13 1 1,-7 0 345,-15 0 0,-13 0 1545,-17 0-1545,-52 0 0,-70 0 0,17 0 0,-7 0 44,-18 1 1,-8-2-45,8 0 0,-6-2 0,3 1 0,11 2 0,2 0 0,-2-1 0,-13-1 0,-2 0 0,4 0 670,-15 2 0,8 0-670,25 0 0,9 0 877,-8 2-877,54-2 0,24 0 0,37-16 0,2 3 0,7-2 267,18-5 1,7-3-268,-11 0 0,4-2 0,0-2-235,2 0 0,0-1 0,-1-3 235,-4-3 0,-1-2 0,-1-5 0,5-6 0,0-5 0,-5-1 0,-15 6 0,-4-1 0,-3-3 0,1-8 0,-2-4 0,-6 1-899,7-19 0,-10-2 899,-12-13 0,-7-1 0,-1 19 0,-7 2-190,-13-6 0,-10 5 190,-1 26 0,-9 7 0,-19-1 0,-13 9-75,-22 11 0,-9 7 75,24 6 0,-1 2 0,-5 2-77,-18 2 1,-5 2 0,2 2 76,11 1 0,1 1 0,-1 1 0,-6 3 0,-1 2 0,1 1 0,7 1 0,1 1 0,2 2 0,5 2 0,2 1 0,1 4 0,3 2 0,1 3 0,4 1 0,-9 6 0,8 2 1692,-17 28-1692,42-6 0,57-1 0,11-11 0,11-13 0,10-4-860,22-8 0,9-5 860,-13-4 0,4-2 0,3-1-369,12-1 0,3-2 0,2-2 369,-20-2 0,0-1 0,2-1 0,0-1 0,7-2 0,1-1 0,0-1 0,-2-1 0,-6 0 0,-1 1 0,-2-2 0,1-1 0,25-6 0,0-2 0,-8-2 529,-23 4 0,-4-2 0,-7 1-529,2 0 0,-12-1 0,-7-11 0,-87 17 0,-6 9 0,-11 4 62,-31-5 1,-10 1-63,20 4 0,-4 2 0,-6-1-229,7 0 0,-4 0 0,-3 0 0,0 0 229,-4 0 0,0 0 0,-1 0 0,-1 0 0,13 0 0,-1 0 0,-1 0 0,0 0 0,2 0 0,4 0 0,1 0 0,0 0 0,1 0 0,3 0 0,-8 0 0,2 0 0,2 0 0,4 0 0,-10 2 0,4 0 0,8 0 429,-3 0 1,11 1-430,-1 6 0,56-4 0,52-8 0,9-10 0,10-3 135,14-1 0,7-1-135,-11 0 0,3-1 0,2-1 632,4 1 0,1 0 0,0-1-632,2 0 0,1-1 0,-1-3 0,2-5 0,-1-4 0,-1-1 0,-7 2 0,0-1 0,-4-2 0,-3-2 0,-3-3 0,-7 2-83,1-5 0,-7 4 83,15-14 0,-57 25 0,-34 13 0,-57 5 0,19 10 0,-7 3-198,7 0 0,-5 1 0,-2 3 198,-14 6 0,-3 3 0,0-1-67,1-1 0,0-1 0,-1 2 67,-3 4 0,0 1 0,5 0 0,14-5 0,3-1 0,4 2-334,-16 8 0,9-2 334,-5 3 0,41-2 0,55-19 0,42-7 0,3-7 0,9-4-143,17-5 1,8-2 142,-10 0 0,5-1 0,-1-1-117,-2 1 1,-1 0 0,1-1 116,4-2 0,2 0 0,-3-3 0,-6-2 0,-1-2 0,-4-2-564,-9 0 0,-3-1 0,-3-2 564,-6-2 0,-3-3 0,-5 1-61,4-7 0,-9-1 61,5-27 2314,-37 36-2314,-36 6 3412,-27 19-3412,-42 1 0,8 23 0,-8 7-327,-5-3 1,-3 4 326,18 0 0,-2 4 0,1-1 0,8-3 0,1 0 0,2 0-232,-25 7 0,4 2 232,10 1 0,7 0 0,22-6 0,7-1 0,-13 11 0,45-16 0,33-13 0,53-28 0,-16 7 0,6-3 798,19-8 1,5-4-799,-24 10 0,0-1 0,0-1 0,0 0 0,1-2 0,-3 0 0,18-13 0,-6-1 44,-7 3 0,-8 0-44,8-21 0,-36 25 0,-19 16 0,-12 9 0,-7 7 2693,-28 16-2693,-53 29 0,35-17 0,-4 1-1463,-19 10 1,-1 1 1462,11-7 0,2 0 0,-7 7 0,2-1 0,23-9 0,2 0 0,-4 7 0,7-2 0,8-1 0,6 2 0,21-22 0,11-4 0,23-13 0,-14 3 0,12-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-08-08T23:53:57.590"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#FFFC00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">385 0,'10'60,"-2"-3,-13 14,-8 25,-3-28,-3 4,0 5,-2 2,-6 5,-1-1,3-2,0-1,-3 0,1 1,4-4,1 0,-2-3,0-2,8-14,3-3,-6 38,10-34,9-1,0-28,0 0,7-26,15-10,13-14,18-16,19-30,-29 29,1-3,7-10,2-3,8-7,1-3,-4 0,-1-1,0-7,-1-2,-2-2,-3 1,-12 11,-3 0,2-3,-4 1,-9 15,-4 3,7-35,-12 16,-12 27,-4 15,-20 69,5 12,-8 4,-5 9,-2 17,-3 5,7-31,-1 0,0 3,-3 14,-1 3,1-2,2-9,0-2,1 2,-2 5,1 1,1-2,-3 11,0-1,7-20,0 1,3-5,3-4,3-3,0 3,3-4,1 1,10-21,0-22,19-72,-5 8,6-11,3-5,-2 10,0 0,4-12,1-3,2-4,-1-4,-1-10,-2-2,-1 11,-2 1,-1 2,-3 3,-4 17,-2 6,4-20,-9 26,-2 30,-29 114,3-23,-2 12,-3 6,5-22,1-3,0-4,0 0,0 8,1-4,-8 13,6 7,8-32,7-19,2-12,16-74,9-19,-7 13,1-5,1-2,-1 0,-1-3,-2-3,2-8,-1-2,-2-1,-1 0,-2 0,-1 3,0 11,-2 4,-3 7,0 5,4-17,-5 22,0 34,-8 51,-5 25,-14 30,4-5,-3 9,7-31,-2 1,-1-2,-10 27,-1 2,8-15,-2 3,1 0,2-6,-1 0,2-1,3-3,0 0,2-1,0 0,1-1,2-2,-3 18,4-3,3-1,2-5,3-24,2-4,4 34,0-57,2-19,7-47,4-25,10-27,-7 28,0-10,0 3,4-13,-1 2,3-11,-1-4,-9 28,-2-1,1 2,4-24,0 2,-2 2,-1 1,1 7,-1 4,-5 21,-1 2,0 0,-1 5,-5-2,0 21,-18 84,-2 3,2-2,-1 5,-1-3,0-1,-1 3,0-1,0 4,0 0,0-7,2-2,-5 28,5-24,12-30,3-18,25-66,0-8,5-2,2-5,-6 5,0-2,3-8,-1-3,2-4,-3-1,-7 2,1 1,4 6,-2 2,-9 16,-1 4,12-20,-16 63,-33 106,11-34,-2 6,-2-5,-1 4,-1 0,2-3,0 1,-1-1,-9 28,-1 1,11-28,-1 1,2 0,2 0,0-1,2 0,-10 28,3-2,5-9,4-2,3-9,2-4,3-13,2-5,4 12,2-28,38-100,-3 6,-2-7,3-7,-2 11,-1 0,-3-9,0-3,-4 14,2-1,-2 0,8-22,-1 2,0-6,0 3,-4 17,-3 5,6-26,-12 38,-14 57,-18 52,-2-5,-1 7,0 13,-1 4,-4 5,0 0,7-4,3 0,1 8,2 1,1-1,3 0,0 2,2-2,0-3,3-5,2-22,2-5,11 19,10-37,-11-23,9-22,-2-21,12-28,-10 12,2-4,5-12,-1-3,0-3,-2 0,1 5,-4 1,-9 7,-3 4,5-9,-10 11,-12 40,-38 77,0 1,7-7,-1 2,7-11,2-2,-16 41,12-12,10-23,15-27,41-98,-12 11,3 4,-1-2,-1-20,-2 12,-7 12,-6 17,-6 25,-37 71,-3 6,2-6,-1 2,-12 25,20-38,1-1,-13 18,4 2,9-29,15-14,5-20,30-55,0 2,0-1,0-5,14-35,-20 39,-1 1,9-33,-11 33,-1 4,-4 5,4-6,-16 47,-21 46,-4 16,0-7,-2 2,1-7,-1 2,-6 17,0 0,5-16,2 0,-1 4,2-2,-7 25,13-33,9-14,7-20,48-92,-13 19,5-6,2-4,-14 15,-2 2,2 4,1-1,1-13,-1 0,14-23,-1-1,-23 47,-8 21,-35 70,-5 6,3-3,-1 4,3-4,1-1,0-3,1 1,1 6,2-4,-3-2,5-4</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1108,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4A662F-E400-324C-9271-B2D7DA7211D0}">
-  <dimension ref="D3:S29"/>
+  <dimension ref="D3:S38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E22" zoomScale="186" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1991,7 @@
         <v>29244</v>
       </c>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1389,7 +2000,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>33</v>
       </c>
@@ -1400,7 +2011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G20" s="9" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +2028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G21" s="1">
         <v>10</v>
       </c>
@@ -1443,7 +2054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G22" s="1">
         <v>12</v>
       </c>
@@ -1472,7 +2083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G23" s="1">
         <v>13</v>
       </c>
@@ -1501,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G24" s="1">
         <v>15</v>
       </c>
@@ -1530,7 +2141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:16" x14ac:dyDescent="0.2">
       <c r="G25" s="1">
         <v>12</v>
       </c>
@@ -1547,7 +2158,7 @@
         <v>4850</v>
       </c>
     </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H27" s="5" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +2169,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
       <c r="H28" s="5">
         <v>1</v>
       </c>
@@ -1569,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="7:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:16" x14ac:dyDescent="0.2">
       <c r="H29" s="5">
         <v>1</v>
       </c>
@@ -1579,6 +2193,106 @@
       <c r="J29" s="5" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E32" s="15"/>
+      <c r="F32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="15"/>
+      <c r="F33" s="18">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16" t="str">
+        <f>_xlfn.XLOOKUP(F33,$E$5:$E$15,$F$5:$F$15)</f>
+        <v>LUCAS DA SILVA</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E34" s="15"/>
+      <c r="F34" s="18">
+        <v>3</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f t="shared" ref="G34:G37" si="0">_xlfn.XLOOKUP(F34,$E$5:$E$15,$F$5:$F$15)</f>
+        <v>SILVÉRIO DA FONSECA</v>
+      </c>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E35" s="15"/>
+      <c r="F35" s="18">
+        <v>5</v>
+      </c>
+      <c r="G35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>FERNANDA DO NASCIMENTO</v>
+      </c>
+      <c r="H35" s="17"/>
+      <c r="I35" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E36" s="15"/>
+      <c r="F36" s="18">
+        <v>7</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>VITÓRIA DE ALMEIDA</v>
+      </c>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E37" s="15"/>
+      <c r="F37" s="18">
+        <v>2</v>
+      </c>
+      <c r="G37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>LUCAS DA SILVA</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="J37" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
